--- a/files/iTOL.xlsx
+++ b/files/iTOL.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="connections (edges)" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="label colors" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="strip colors" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -542,7 +542,7 @@
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.27"/>
@@ -17751,7 +17751,7 @@
       <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.2"/>
@@ -19067,7 +19067,7 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.58"/>
   </cols>
